--- a/output_data/Away 1.5 - 2.0 Live_2024-10-13.xlsx
+++ b/output_data/Away 1.5 - 2.0 Live_2024-10-13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\SoccerPro\soccerpro\output_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17962DFB-A047-416B-852F-920A364DC344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA3680D-0BFE-4EF8-A75B-BE93B60F2178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9768" yWindow="1200" windowWidth="13056" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,110 +949,6 @@
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
